--- a/website_content_creation/authors/Derek Chartrand/Author_form_DC.xlsx
+++ b/website_content_creation/authors/Derek Chartrand/Author_form_DC.xlsx
@@ -101,9 +101,6 @@
     <t>Derek Chartrand</t>
   </si>
   <si>
-    <t>Chemisty Lab Technician</t>
-  </si>
-  <si>
     <t>derek.chartrand@canada.ca</t>
   </si>
   <si>
@@ -114,6 +111,9 @@
   </si>
   <si>
     <t>Watershed Ecology Team</t>
+  </si>
+  <si>
+    <t>Chemistry Lab Technician</t>
   </si>
 </sst>
 </file>
@@ -386,6 +386,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -395,7 +396,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -680,7 +680,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -713,7 +713,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -727,7 +727,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -752,15 +752,15 @@
         <v>18</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+      <c r="B11" t="s">
         <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -769,11 +769,11 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
@@ -813,10 +813,10 @@
     </row>
     <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="17"/>
+      <c r="B21" s="18"/>
     </row>
     <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">

--- a/website_content_creation/authors/Derek Chartrand/Author_form_DC.xlsx
+++ b/website_content_creation/authors/Derek Chartrand/Author_form_DC.xlsx
@@ -104,9 +104,6 @@
     <t>derek.chartrand@canada.ca</t>
   </si>
   <si>
-    <t>Is an Environmental and Ecotoxicology Technologist with the Canadian Forest Service of Natural Resources Canada.  Since graduating in 1996, he has contributed technical support to the planning, conducting and reporting of laboratory and field experiments within a wide variety of projects relating to Canadian forested ecosystems.  Derek brings diverse experiential and technical skills to these studies quantitative analytical chemistry, GPS and radiotelemetry of species at risk, GIS-based spatial analysis and most recently sampling and assessment of macroinvertebrate community via metabarcoding.</t>
-  </si>
-  <si>
     <t>Groups</t>
   </si>
   <si>
@@ -114,6 +111,9 @@
   </si>
   <si>
     <t>Chemistry Lab Technician</t>
+  </si>
+  <si>
+    <t>I am an Environmental and Ecotoxicology Technologist with the Canadian Forest Service of Natural Resources Canada.  Since graduating in 1996, I have contributed technical support to the planning, conducting and reporting of laboratory and field experiments within a wide variety of projects relating to Canadian forested ecosystems.  I bring diverse experiential and technical skills to these studies quantitative analytical chemistry, GPS and radiotelemetry of species at risk, GIS-based spatial analysis and most recently sampling and assessment of macroinvertebrate community via metabarcoding.</t>
   </si>
 </sst>
 </file>
@@ -680,7 +680,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -713,7 +713,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -752,15 +752,15 @@
         <v>18</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
         <v>27</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">

--- a/website_content_creation/authors/Derek Chartrand/Author_form_DC.xlsx
+++ b/website_content_creation/authors/Derek Chartrand/Author_form_DC.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>name</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>Forest management</t>
-  </si>
-  <si>
-    <t>R Programming</t>
   </si>
   <si>
     <t>Derek Chartrand</t>
@@ -680,7 +677,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -705,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -713,7 +710,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -727,7 +724,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -752,15 +749,15 @@
         <v>18</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
         <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -878,9 +875,7 @@
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A35" s="1"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>

--- a/website_content_creation/authors/Derek Chartrand/Author_form_DC.xlsx
+++ b/website_content_creation/authors/Derek Chartrand/Author_form_DC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esmender\Documents\WET lab\WETlab_website\website_content_creation\authors\Derek Chartrand\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esmender\RProjects\GLFC-WET.github.io\website_content_creation\authors\Derek Chartrand\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -98,9 +98,6 @@
     <t>Derek Chartrand</t>
   </si>
   <si>
-    <t>derek.chartrand@canada.ca</t>
-  </si>
-  <si>
     <t>Groups</t>
   </si>
   <si>
@@ -111,6 +108,9 @@
   </si>
   <si>
     <t>I am an Environmental and Ecotoxicology Technologist with the Canadian Forest Service of Natural Resources Canada.  Since graduating in 1996, I have contributed technical support to the planning, conducting and reporting of laboratory and field experiments within a wide variety of projects relating to Canadian forested ecosystems.  I bring diverse experiential and technical skills to these studies quantitative analytical chemistry, GPS and radiotelemetry of species at risk, GIS-based spatial analysis and most recently sampling and assessment of macroinvertebrate community via metabarcoding.</t>
+  </si>
+  <si>
+    <t>derek.chartrand@NRCan-RNCan.gc.ca</t>
   </si>
 </sst>
 </file>
@@ -677,7 +677,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -710,7 +710,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -724,7 +724,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -749,15 +749,15 @@
         <v>18</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
         <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
